--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_11-35.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_11-35.xlsx
@@ -56,6 +56,18 @@
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -72,6 +84,9 @@
   </si>
   <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
@@ -845,11 +860,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -865,17 +880,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -883,7 +898,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -891,13 +906,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
@@ -909,7 +924,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -917,17 +932,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -935,7 +950,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -943,17 +958,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -961,7 +976,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -969,17 +984,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -987,7 +1002,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -995,17 +1010,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1021,17 +1036,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1039,7 +1054,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1047,17 +1062,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1065,7 +1080,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1073,13 +1088,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1091,7 +1106,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1099,13 +1114,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1117,7 +1132,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1125,51 +1140,129 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="24.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c t="s" r="B21" s="7">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c t="s" r="H21" s="8">
+        <v>35</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9">
+        <v>20</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="K21" s="11">
-        <v>671.5</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="12">
-        <v>35</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c t="s" r="F22" s="13">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c t="s" r="B22" s="7">
         <v>36</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c t="s" r="I22" s="15">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c t="s" r="H22" s="8">
         <v>37</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9">
+        <v>25</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c t="s" r="B23" s="7">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c t="s" r="H23" s="8">
+        <v>39</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9">
+        <v>15</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="K24" s="11">
+        <v>822.5</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="12">
+        <v>40</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c t="s" r="F25" s="13">
+        <v>41</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c t="s" r="I25" s="15">
+        <v>42</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="71">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1228,10 +1321,19 @@
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:N25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
